--- a/public/assets/examexcel/Data Siswa Kelas XII MM.xlsx
+++ b/public/assets/examexcel/Data Siswa Kelas XII MM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ridho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5da8a393d89142a7/Dokumen/Web-Kelulusan/public/assets/examexcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9EF38533926529590BC6E943F3F7BD69EC9BE6EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8629CF69-3E15-4C28-9DB5-05F6E46D610B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -698,7 +690,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,16 +1036,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="28.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1134,7 +1129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1238,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1264,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1290,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1316,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1368,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1394,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1420,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1550,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1576,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1680,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1706,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1784,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1862,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1914,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1966,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1992,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2018,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2096,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2122,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2200,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2226,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2278,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2304,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2330,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2382,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2408,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2434,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2460,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2486,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2512,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2590,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2616,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2642,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2668,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2694,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2720,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2746,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2772,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2798,7 +2793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2824,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2850,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2876,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2902,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2928,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2954,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2980,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3006,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3032,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3058,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3084,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3188,7 +3183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3240,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3266,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3292,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3344,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3370,7 +3365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3396,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3422,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3448,7 +3443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3474,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3500,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3526,7 +3521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3552,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3578,7 +3573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3604,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3630,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3656,7 +3651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3682,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3708,7 +3703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3734,7 +3729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3760,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3786,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3812,7 +3807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3838,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3864,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3890,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3916,7 +3911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3942,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3968,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3994,7 +3989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4020,7 +4015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4034,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
